--- a/tests/test_tax_transfers/test_data/test_dfs_wg.xlsx
+++ b/tests/test_tax_transfers/test_data/test_dfs_wg.xlsx
@@ -19,32 +19,6 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="AK2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>RS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-WoGG Anlage 1 (zu §19 (1))
-- zuletzt geändert durch BGBl Nr.38 vom 08.10.2015, S.1617
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AL2" authorId="0" shapeId="0">
       <text>
         <r>
@@ -71,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK3" authorId="0" shapeId="0">
+    <comment ref="AM2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,31 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-für das arbeitende Kind</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AK4" authorId="0" shapeId="0">
+    <comment ref="AM3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,6 +120,30 @@
 WoGG Anlage 1 (zu §19 (1))
 - zuletzt geändert durch BGBl Nr.38 vom 08.10.2015, S.1617
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+für das arbeitende Kind</t>
         </r>
       </text>
     </comment>
@@ -199,7 +173,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH5" authorId="0" shapeId="0">
+    <comment ref="AM4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>RS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WoGG Anlage 1 (zu §19 (1))
+- zuletzt geändert durch BGBl Nr.38 vom 08.10.2015, S.1617
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH7" authorId="0" shapeId="0">
+    <comment ref="AI7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>hid</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>uhv</t>
+  </si>
+  <si>
+    <t>pid</t>
   </si>
 </sst>
 </file>
@@ -771,22 +774,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP17"/>
+  <dimension ref="A1:AQ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="29" max="29" width="15.7109375" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" customWidth="1"/>
-    <col min="32" max="33" width="14.7109375" customWidth="1"/>
-    <col min="34" max="34" width="16.140625" customWidth="1"/>
-    <col min="35" max="35" width="9.28515625" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" customWidth="1"/>
+    <col min="33" max="34" width="14.7109375" customWidth="1"/>
+    <col min="35" max="35" width="16.140625" customWidth="1"/>
+    <col min="36" max="36" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -794,124 +797,127 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>40</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>8</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>9</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>2</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>11</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>16</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>31</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>28</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>B2</f>
         <v>1</v>
@@ -919,43 +925,43 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <f>E2</f>
+      <c r="G2">
+        <f>F2</f>
         <v>3</v>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>700</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>100</v>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
       <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>3</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2000</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
@@ -972,119 +978,122 @@
         <v>0</v>
       </c>
       <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>25000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1000</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
       <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>1000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>100</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>80</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>2016</v>
       </c>
-      <c r="AC2" s="13">
-        <f>1.15*(AP2-((AJ2+(AK2*AP2)+(AL2*AO2))*AO2))</f>
+      <c r="AD2" s="13">
+        <f>1.15*(AQ2-((AK2+(AL2*AQ2)+(AM2*AP2))*AP2))</f>
         <v>60.43528875000009</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>0.3</v>
       </c>
-      <c r="AF2" s="10">
-        <f>(S2+T2+U2+V2)/12+P2+Q2+(N2*O2)</f>
+      <c r="AG2" s="10">
+        <f>(T2+U2+V2+W2)/12+Q2+R2+(O2*P2)</f>
         <v>2166.6666666666665</v>
       </c>
-      <c r="AG2" s="10">
-        <f>SUM($AF$2:$AF$4)</f>
+      <c r="AH2" s="10">
+        <f>SUM($AG$2:$AG$4)</f>
         <v>2166.6666666666665</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>100</v>
       </c>
-      <c r="AI2" s="12">
-        <f>MAX(ROUND((1-AE2)*MAX(0,AG2-AH2)+4,-1)-5,0)</f>
+      <c r="AJ2" s="12">
+        <f>MAX(ROUND((1-AF2)*MAX(0,AH2-AI2)+4,-1)-5,0)</f>
         <v>1445</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>0.02</v>
       </c>
-      <c r="AK2" s="5">
+      <c r="AL2" s="5">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="AL2" s="5">
+      <c r="AM2" s="5">
         <v>8.2999999999999998E-5</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>563</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>70</v>
       </c>
-      <c r="AO2" s="12">
-        <f>AI2</f>
+      <c r="AP2" s="12">
+        <f>AJ2</f>
         <v>1445</v>
       </c>
-      <c r="AP2">
-        <f>ROUND(MAX(MIN(H2,AM2),AN2)+4,-1)-5</f>
+      <c r="AQ2">
+        <f>ROUND(MAX(MIN(I2,AN2),AO2)+4,-1)-5</f>
         <v>565</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F13" si="0">E3</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="0">F3</f>
         <v>3</v>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>700</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>100</v>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>3</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
         <v>0</v>
       </c>
@@ -1128,98 +1137,101 @@
         <v>0</v>
       </c>
       <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
         <v>2016</v>
       </c>
-      <c r="AC3" s="13">
-        <f t="shared" ref="AC3:AC4" si="1">1.15*(AP3-((AJ3+(AK3*AP3)+(AL3*AO3))*AO3))</f>
+      <c r="AD3" s="13">
+        <f t="shared" ref="AD3:AD4" si="1">1.15*(AQ3-((AK3+(AL3*AQ3)+(AM3*AP3))*AP3))</f>
         <v>60.43528875000009</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.3</v>
       </c>
-      <c r="AF3" s="10">
-        <f t="shared" ref="AF3:AF13" si="2">(S3+T3+U3+V3)/12+P3+Q3+(N3*O3)</f>
-        <v>0</v>
-      </c>
       <c r="AG3" s="10">
-        <f>SUM($AF$2:$AF$4)</f>
+        <f t="shared" ref="AG3:AG13" si="2">(T3+U3+V3+W3)/12+Q3+R3+(O3*P3)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="10">
+        <f>SUM($AG$2:$AG$4)</f>
         <v>2166.6666666666665</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>100</v>
       </c>
-      <c r="AI3" s="12">
-        <f t="shared" ref="AI3:AI13" si="3">MAX(ROUND((1-AE3)*MAX(0,AG3-AH3)+4,-1)-5,0)</f>
+      <c r="AJ3" s="12">
+        <f t="shared" ref="AJ3:AJ13" si="3">MAX(ROUND((1-AF3)*MAX(0,AH3-AI3)+4,-1)-5,0)</f>
         <v>1445</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.02</v>
       </c>
-      <c r="AK3" s="5">
+      <c r="AL3" s="5">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="AL3" s="5">
+      <c r="AM3" s="5">
         <v>8.2999999999999998E-5</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>563</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>70</v>
       </c>
-      <c r="AO3" s="12">
-        <f t="shared" ref="AO3:AO8" si="4">AI3</f>
+      <c r="AP3" s="12">
+        <f t="shared" ref="AP3:AP8" si="4">AJ3</f>
         <v>1445</v>
       </c>
-      <c r="AP3">
-        <f t="shared" ref="AP3:AP13" si="5">ROUND(MAX(MIN(H3,AM3),AN3)+4,-1)-5</f>
+      <c r="AQ3">
+        <f t="shared" ref="AQ3:AQ13" si="5">ROUND(MAX(MIN(I3,AN3),AO3)+4,-1)-5</f>
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>700</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>100</v>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>200</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
         <v>0</v>
       </c>
@@ -1260,98 +1272,101 @@
         <v>0</v>
       </c>
       <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
         <v>2016</v>
       </c>
-      <c r="AC4" s="13">
+      <c r="AD4" s="13">
         <f t="shared" si="1"/>
         <v>60.43528875000009</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>0.3</v>
       </c>
-      <c r="AF4" s="10">
+      <c r="AG4" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG4" s="10">
-        <f>SUM($AF$2:$AF$4)</f>
+      <c r="AH4" s="10">
+        <f>SUM($AG$2:$AG$4)</f>
         <v>2166.6666666666665</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>100</v>
       </c>
-      <c r="AI4" s="12">
+      <c r="AJ4" s="12">
         <f t="shared" si="3"/>
         <v>1445</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>0.02</v>
       </c>
-      <c r="AK4" s="5">
+      <c r="AL4" s="5">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="AL4" s="5">
+      <c r="AM4" s="5">
         <v>8.2999999999999998E-5</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>563</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>70</v>
       </c>
-      <c r="AO4" s="12">
+      <c r="AP4" s="12">
         <f t="shared" si="4"/>
         <v>1445</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <f t="shared" si="5"/>
         <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="2">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="H5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>400</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>80</v>
       </c>
-      <c r="J5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="K5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
         <v>3</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>800</v>
       </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
@@ -1359,20 +1374,20 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
         <v>100</v>
       </c>
-      <c r="R5" s="2">
-        <v>0</v>
-      </c>
       <c r="S5" s="2">
         <v>0</v>
       </c>
       <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
         <v>10000</v>
       </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
       <c r="V5" s="2">
         <v>0</v>
       </c>
@@ -1380,112 +1395,115 @@
         <v>0</v>
       </c>
       <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
         <v>100</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Z5" s="2">
         <v>80</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AA5" s="2">
         <v>50</v>
       </c>
-      <c r="AA5" s="2">
-        <v>0</v>
-      </c>
       <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
         <v>2013</v>
       </c>
-      <c r="AC5" s="13">
-        <f>1.08*(AP5-((AJ5+(AK5*AP5)+(AL5*AO5))*AO5))</f>
+      <c r="AD5" s="13">
+        <f>1.08*(AQ5-((AK5+(AL5*AQ5)+(AM5*AP5))*AP5))</f>
         <v>191.51471817000001</v>
       </c>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2">
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2">
         <v>0.2</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AG5" s="11">
         <f t="shared" si="2"/>
         <v>933.33333333333337</v>
       </c>
-      <c r="AG5" s="10">
-        <f>SUM($AF$5:$AF$6)</f>
+      <c r="AH5" s="10">
+        <f>SUM($AG$5:$AG$6)</f>
         <v>933.33333333333337</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AI5" s="2">
         <v>100</v>
       </c>
-      <c r="AI5" s="12">
+      <c r="AJ5" s="12">
         <f t="shared" si="3"/>
         <v>665</v>
       </c>
-      <c r="AJ5" s="9">
+      <c r="AK5" s="9">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="AK5" s="9">
+      <c r="AL5" s="9">
         <v>5.7609999999999996E-4</v>
       </c>
-      <c r="AL5" s="9">
+      <c r="AM5" s="9">
         <v>6.4309999999999999E-5</v>
       </c>
-      <c r="AM5" s="3">
+      <c r="AN5" s="3">
         <v>402</v>
       </c>
-      <c r="AN5" s="3">
+      <c r="AO5" s="3">
         <v>55</v>
       </c>
-      <c r="AO5" s="12">
+      <c r="AP5" s="12">
         <f t="shared" si="4"/>
         <v>665</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <f t="shared" si="5"/>
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="H6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
         <v>400</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="7">
         <v>80</v>
       </c>
-      <c r="J6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
+      <c r="K6" s="8" t="b">
         <v>0</v>
       </c>
       <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
         <v>3</v>
       </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
         <v>0</v>
       </c>
       <c r="P6" s="3">
@@ -1521,102 +1539,105 @@
       <c r="Z6" s="3">
         <v>0</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="3">
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
         <v>2013</v>
       </c>
-      <c r="AC6" s="13">
-        <f>1.08*(AP6-((AJ6+(AK6*AP6)+(AL6*AO6))*AO6))</f>
+      <c r="AD6" s="13">
+        <f>1.08*(AQ6-((AK6+(AL6*AQ6)+(AM6*AP6))*AP6))</f>
         <v>191.51471817000001</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AF6" s="3">
         <v>0.2</v>
       </c>
-      <c r="AF6" s="10">
+      <c r="AG6" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="10">
-        <f>SUM($AF$5:$AF$6)</f>
+      <c r="AH6" s="10">
+        <f>SUM($AG$5:$AG$6)</f>
         <v>933.33333333333337</v>
       </c>
-      <c r="AH6" s="3">
+      <c r="AI6" s="3">
         <v>100</v>
       </c>
-      <c r="AI6" s="12">
+      <c r="AJ6" s="12">
         <f t="shared" si="3"/>
         <v>665</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AK6" s="6">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AL6" s="6">
         <v>5.7609999999999996E-4</v>
       </c>
-      <c r="AL6" s="6">
+      <c r="AM6" s="6">
         <v>6.4309999999999999E-5</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AN6" s="3">
         <v>402</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AO6" s="3">
         <v>55</v>
       </c>
-      <c r="AO6" s="12">
+      <c r="AP6" s="12">
         <f t="shared" si="4"/>
         <v>665</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <f t="shared" si="5"/>
         <v>395</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="2">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="H7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>400</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>80</v>
       </c>
-      <c r="J7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="K7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
         <v>3</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>1000</v>
       </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
@@ -1624,129 +1645,132 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
         <v>250</v>
       </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
       <c r="S7" s="2">
         <v>0</v>
       </c>
       <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
         <v>16000</v>
       </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
       <c r="V7" s="2">
         <v>0</v>
       </c>
       <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
         <v>1000</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>80</v>
       </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
       <c r="AA7" s="2">
         <v>0</v>
       </c>
       <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
         <v>2009</v>
       </c>
-      <c r="AC7" s="13">
-        <f t="shared" ref="AC7:AC8" si="6">1.08*(AP7-((AJ7+(AK7*AP7)+(AL7*AO7))*AO7))</f>
+      <c r="AD7" s="13">
+        <f t="shared" ref="AD7:AD8" si="6">1.08*(AQ7-((AK7+(AL7*AQ7)+(AM7*AP7))*AP7))</f>
         <v>15.962717249999999</v>
       </c>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2">
         <v>0.3</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AG7" s="11">
         <f t="shared" si="2"/>
         <v>1583.3333333333333</v>
       </c>
-      <c r="AG7" s="10">
-        <f>SUM($AF$7:$AF$8)</f>
+      <c r="AH7" s="10">
+        <f>SUM($AG$7:$AG$8)</f>
         <v>1583.3333333333333</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AI7" s="2">
         <v>50</v>
       </c>
-      <c r="AI7" s="12">
+      <c r="AJ7" s="12">
         <f t="shared" si="3"/>
         <v>1075</v>
       </c>
-      <c r="AJ7" s="9">
+      <c r="AK7" s="9">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="AK7" s="9">
+      <c r="AL7" s="9">
         <v>5.7609999999999996E-4</v>
       </c>
-      <c r="AL7" s="9">
+      <c r="AM7" s="9">
         <v>6.4309999999999999E-5</v>
       </c>
-      <c r="AM7" s="3">
+      <c r="AN7" s="3">
         <v>402</v>
       </c>
-      <c r="AN7" s="3">
+      <c r="AO7" s="3">
         <v>55</v>
       </c>
-      <c r="AO7" s="12">
+      <c r="AP7" s="12">
         <f t="shared" si="4"/>
         <v>1075</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <f t="shared" si="5"/>
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>80</v>
       </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="K8" t="b">
         <v>1</v>
       </c>
       <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -1790,95 +1814,98 @@
         <v>0</v>
       </c>
       <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
         <v>2009</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AD8" s="13">
         <f t="shared" si="6"/>
         <v>15.962717249999999</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>0.3</v>
       </c>
-      <c r="AF8" s="10">
+      <c r="AG8" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="10">
-        <f>SUM($AF$7:$AF$8)</f>
+      <c r="AH8" s="10">
+        <f>SUM($AG$7:$AG$8)</f>
         <v>1583.3333333333333</v>
       </c>
-      <c r="AH8" s="3">
+      <c r="AI8" s="3">
         <v>50</v>
       </c>
-      <c r="AI8" s="12">
+      <c r="AJ8" s="12">
         <f t="shared" si="3"/>
         <v>1075</v>
       </c>
-      <c r="AJ8" s="6">
+      <c r="AK8" s="6">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="AK8" s="6">
+      <c r="AL8" s="6">
         <v>5.7609999999999996E-4</v>
       </c>
-      <c r="AL8" s="6">
+      <c r="AM8" s="6">
         <v>6.4309999999999999E-5</v>
       </c>
-      <c r="AM8" s="3">
+      <c r="AN8" s="3">
         <v>402</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AO8" s="3">
         <v>55</v>
       </c>
-      <c r="AO8" s="12">
+      <c r="AP8" s="12">
         <f t="shared" si="4"/>
         <v>1075</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <f t="shared" si="5"/>
         <v>395</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="2">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="H9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
         <v>850</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>120</v>
       </c>
-      <c r="J9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
         <v>2</v>
       </c>
-      <c r="L9" s="9">
+      <c r="M9" s="9">
         <v>3</v>
       </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
       <c r="N9" s="2">
         <v>0</v>
       </c>
@@ -1910,11 +1937,11 @@
         <v>0</v>
       </c>
       <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
         <v>50</v>
       </c>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
       <c r="Z9" s="2">
         <v>0</v>
       </c>
@@ -1922,95 +1949,98 @@
         <v>0</v>
       </c>
       <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
         <v>2006</v>
       </c>
-      <c r="AC9" s="13">
-        <f>(AP9-((AJ9+(AK9*AP9)+(AL9*AO9))*AO9))</f>
+      <c r="AD9" s="13">
+        <f>(AQ9-((AK9+(AL9*AQ9)+(AM9*AP9))*AP9))</f>
         <v>504.25435025000002</v>
       </c>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2">
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2">
         <v>0.1</v>
       </c>
-      <c r="AF9" s="11">
+      <c r="AG9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG9" s="11">
-        <f>SUM($AF$9:$AF$13)</f>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="12">
+      <c r="AH9" s="11">
+        <f>SUM($AG$9:$AG$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>3.48E-4</v>
       </c>
-      <c r="AL9" s="5">
+      <c r="AM9" s="5">
         <v>2.1509999999999999E-5</v>
       </c>
-      <c r="AM9" s="3">
+      <c r="AN9" s="3">
         <v>580</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>32.5</v>
       </c>
-      <c r="AO9" s="12">
+      <c r="AP9" s="12">
         <v>285</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <f t="shared" si="5"/>
         <v>575</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="C10">
+        <v>23</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
         <v>850</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>120</v>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>2</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
@@ -2053,95 +2083,98 @@
       <c r="AA10" s="3">
         <v>0</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4">
         <v>2006</v>
       </c>
-      <c r="AC10" s="13">
-        <f t="shared" ref="AC10:AC13" si="7">(AP10-((AJ10+(AK10*AP10)+(AL10*AO10))*AO10))</f>
+      <c r="AD10" s="13">
+        <f t="shared" ref="AD10:AD13" si="7">(AQ10-((AK10+(AL10*AQ10)+(AM10*AP10))*AP10))</f>
         <v>504.25435025000002</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF10" s="10">
+      <c r="AG10" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="10">
-        <f t="shared" ref="AG10:AG13" si="8">SUM($AF$9:$AF$13)</f>
-        <v>0</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="12">
+      <c r="AH10" s="10">
+        <f t="shared" ref="AH10:AH13" si="8">SUM($AG$9:$AG$13)</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>3.48E-4</v>
       </c>
-      <c r="AL10" s="5">
+      <c r="AM10" s="5">
         <v>2.1509999999999999E-5</v>
       </c>
-      <c r="AM10" s="3">
+      <c r="AN10" s="3">
         <v>580</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>32.5</v>
       </c>
-      <c r="AO10" s="12">
+      <c r="AP10" s="12">
         <v>285</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <f t="shared" si="5"/>
         <v>575</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
         <v>850</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>120</v>
       </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
         <v>2</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <v>3</v>
       </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
       <c r="N11" s="3">
         <v>0</v>
       </c>
@@ -2184,95 +2217,98 @@
       <c r="AA11" s="3">
         <v>0</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
         <v>2006</v>
       </c>
-      <c r="AC11" s="13">
+      <c r="AD11" s="13">
         <f t="shared" si="7"/>
         <v>504.25435025000002</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AF11" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF11" s="10">
+      <c r="AG11" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="10">
+      <c r="AH11" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="12">
+      <c r="AI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>3.48E-4</v>
       </c>
-      <c r="AL11" s="5">
+      <c r="AM11" s="5">
         <v>2.1509999999999999E-5</v>
       </c>
-      <c r="AM11" s="3">
+      <c r="AN11" s="3">
         <v>580</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>32.5</v>
       </c>
-      <c r="AO11" s="12">
+      <c r="AP11" s="12">
         <v>285</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <f t="shared" si="5"/>
         <v>575</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
         <v>5</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
         <v>850</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>120</v>
       </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>2</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
@@ -2315,95 +2351,98 @@
       <c r="AA12" s="3">
         <v>0</v>
       </c>
-      <c r="AB12" s="4">
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
         <v>2006</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AD12" s="13">
         <f t="shared" si="7"/>
         <v>504.25435025000002</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF12" s="10">
+      <c r="AG12" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="10">
+      <c r="AH12" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="12">
+      <c r="AI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>3.48E-4</v>
       </c>
-      <c r="AL12" s="5">
+      <c r="AM12" s="5">
         <v>2.1509999999999999E-5</v>
       </c>
-      <c r="AM12" s="3">
+      <c r="AN12" s="3">
         <v>580</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>32.5</v>
       </c>
-      <c r="AO12" s="12">
+      <c r="AP12" s="12">
         <v>285</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
         <f t="shared" si="5"/>
         <v>575</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
         <v>850</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>120</v>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
         <v>2</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>3</v>
       </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
       <c r="N13" s="3">
         <v>0</v>
       </c>
@@ -2446,67 +2485,70 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
         <v>2006</v>
       </c>
-      <c r="AC13" s="13">
+      <c r="AD13" s="13">
         <f t="shared" si="7"/>
         <v>504.25435025000002</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AF13" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF13" s="10">
+      <c r="AG13" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="10">
+      <c r="AH13" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AH13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="12">
+      <c r="AI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>3.48E-4</v>
       </c>
-      <c r="AL13" s="5">
+      <c r="AM13" s="5">
         <v>2.1509999999999999E-5</v>
       </c>
-      <c r="AM13" s="3">
+      <c r="AN13" s="3">
         <v>580</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>32.5</v>
       </c>
-      <c r="AO13" s="12">
+      <c r="AP13" s="12">
         <v>285</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <f t="shared" si="5"/>
         <v>575</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="L14" s="3"/>
-      <c r="AC14" s="1"/>
-      <c r="AE14" s="3"/>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="M14" s="3"/>
+      <c r="AD14" s="1"/>
+      <c r="AF14" s="3"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="AC15" s="1"/>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="AC16" s="1"/>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC17" s="1"/>
+    <row r="17" spans="30:30" x14ac:dyDescent="0.25">
+      <c r="AD17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/test_tax_transfers/test_data/test_dfs_wg.xlsx
+++ b/tests/test_tax_transfers/test_data/test_dfs_wg.xlsx
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="AD2" s="13">
         <f>1.15*(AQ2-((AK2+(AL2*AQ2)+(AM2*AP2))*AP2))</f>
-        <v>60.43528875000009</v>
+        <v>58.489817777777859</v>
       </c>
       <c r="AF2">
         <v>0.3</v>
@@ -1026,8 +1026,8 @@
         <v>100</v>
       </c>
       <c r="AJ2" s="12">
-        <f>MAX(ROUND((1-AF2)*MAX(0,AH2-AI2)+4,-1)-5,0)</f>
-        <v>1445</v>
+        <f>MAX((1-AF2)*(AH2-AI2),0)</f>
+        <v>1446.6666666666665</v>
       </c>
       <c r="AK2">
         <v>0.02</v>
@@ -1046,11 +1046,11 @@
       </c>
       <c r="AP2" s="12">
         <f>AJ2</f>
-        <v>1445</v>
+        <v>1446.6666666666665</v>
       </c>
       <c r="AQ2">
-        <f>ROUND(MAX(MIN(I2,AN2),AO2)+4,-1)-5</f>
-        <v>565</v>
+        <f>MIN(MAX(I2,AO2),AN2)</f>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="AD3" s="13">
         <f t="shared" ref="AD3:AD4" si="1">1.15*(AQ3-((AK3+(AL3*AQ3)+(AM3*AP3))*AP3))</f>
-        <v>60.43528875000009</v>
+        <v>58.489817777777859</v>
       </c>
       <c r="AF3">
         <v>0.3</v>
@@ -1161,8 +1161,8 @@
         <v>100</v>
       </c>
       <c r="AJ3" s="12">
-        <f t="shared" ref="AJ3:AJ13" si="3">MAX(ROUND((1-AF3)*MAX(0,AH3-AI3)+4,-1)-5,0)</f>
-        <v>1445</v>
+        <f t="shared" ref="AJ3:AJ13" si="3">MAX((1-AF3)*(AH3-AI3),0)</f>
+        <v>1446.6666666666665</v>
       </c>
       <c r="AK3">
         <v>0.02</v>
@@ -1181,11 +1181,11 @@
       </c>
       <c r="AP3" s="12">
         <f t="shared" ref="AP3:AP8" si="4">AJ3</f>
-        <v>1445</v>
+        <v>1446.6666666666665</v>
       </c>
       <c r="AQ3">
-        <f t="shared" ref="AQ3:AQ13" si="5">ROUND(MAX(MIN(I3,AN3),AO3)+4,-1)-5</f>
-        <v>565</v>
+        <f t="shared" ref="AQ3:AQ13" si="5">MIN(MAX(I3,AO3),AN3)</f>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="AD4" s="13">
         <f t="shared" si="1"/>
-        <v>60.43528875000009</v>
+        <v>58.489817777777859</v>
       </c>
       <c r="AF4">
         <v>0.3</v>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="AJ4" s="12">
         <f t="shared" si="3"/>
-        <v>1445</v>
+        <v>1446.6666666666665</v>
       </c>
       <c r="AK4">
         <v>0.02</v>
@@ -1316,11 +1316,11 @@
       </c>
       <c r="AP4" s="12">
         <f t="shared" si="4"/>
-        <v>1445</v>
+        <v>1446.6666666666665</v>
       </c>
       <c r="AQ4">
         <f t="shared" si="5"/>
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="AD5" s="13">
         <f>1.08*(AQ5-((AK5+(AL5*AQ5)+(AM5*AP5))*AP5))</f>
-        <v>191.51471817000001</v>
+        <v>194.17440000000002</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="AJ5" s="12">
         <f t="shared" si="3"/>
-        <v>665</v>
+        <v>666.66666666666674</v>
       </c>
       <c r="AK5" s="9">
         <v>5.7000000000000002E-2</v>
@@ -1452,11 +1452,11 @@
       </c>
       <c r="AP5" s="12">
         <f t="shared" si="4"/>
-        <v>665</v>
+        <v>666.66666666666674</v>
       </c>
       <c r="AQ5">
         <f t="shared" si="5"/>
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="AD6" s="13">
         <f>1.08*(AQ6-((AK6+(AL6*AQ6)+(AM6*AP6))*AP6))</f>
-        <v>191.51471817000001</v>
+        <v>194.17440000000002</v>
       </c>
       <c r="AF6" s="3">
         <v>0.2</v>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="AJ6" s="12">
         <f t="shared" si="3"/>
-        <v>665</v>
+        <v>666.66666666666674</v>
       </c>
       <c r="AK6" s="6">
         <v>5.7000000000000002E-2</v>
@@ -1587,11 +1587,11 @@
       </c>
       <c r="AP6" s="12">
         <f t="shared" si="4"/>
-        <v>665</v>
+        <v>666.66666666666674</v>
       </c>
       <c r="AQ6">
         <f t="shared" si="5"/>
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="AD7" s="13">
         <f t="shared" ref="AD7:AD8" si="6">1.08*(AQ7-((AK7+(AL7*AQ7)+(AM7*AP7))*AP7))</f>
-        <v>15.962717249999999</v>
+        <v>18.784535520000077</v>
       </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="AJ7" s="12">
         <f t="shared" si="3"/>
-        <v>1075</v>
+        <v>1073.3333333333333</v>
       </c>
       <c r="AK7" s="9">
         <v>5.7000000000000002E-2</v>
@@ -1723,11 +1723,11 @@
       </c>
       <c r="AP7" s="12">
         <f t="shared" si="4"/>
-        <v>1075</v>
+        <v>1073.3333333333333</v>
       </c>
       <c r="AQ7">
         <f t="shared" si="5"/>
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="AD8" s="13">
         <f t="shared" si="6"/>
-        <v>15.962717249999999</v>
+        <v>18.784535520000077</v>
       </c>
       <c r="AF8" s="3">
         <v>0.3</v>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="AJ8" s="12">
         <f t="shared" si="3"/>
-        <v>1075</v>
+        <v>1073.3333333333333</v>
       </c>
       <c r="AK8" s="6">
         <v>5.7000000000000002E-2</v>
@@ -1858,11 +1858,11 @@
       </c>
       <c r="AP8" s="12">
         <f t="shared" si="4"/>
-        <v>1075</v>
+        <v>1073.3333333333333</v>
       </c>
       <c r="AQ8">
         <f t="shared" si="5"/>
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="AD9" s="13">
         <f>(AQ9-((AK9+(AL9*AQ9)+(AM9*AP9))*AP9))</f>
-        <v>504.25435025000002</v>
+        <v>508.75845025000001</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="AQ9">
         <f t="shared" si="5"/>
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="AD10" s="13">
         <f t="shared" ref="AD10:AD13" si="7">(AQ10-((AK10+(AL10*AQ10)+(AM10*AP10))*AP10))</f>
-        <v>504.25435025000002</v>
+        <v>508.75845025000001</v>
       </c>
       <c r="AF10" s="3">
         <v>0.1</v>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="AQ10">
         <f t="shared" si="5"/>
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="AD11" s="13">
         <f t="shared" si="7"/>
-        <v>504.25435025000002</v>
+        <v>508.75845025000001</v>
       </c>
       <c r="AF11" s="3">
         <v>0.1</v>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="AQ11">
         <f t="shared" si="5"/>
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="AD12" s="13">
         <f t="shared" si="7"/>
-        <v>504.25435025000002</v>
+        <v>508.75845025000001</v>
       </c>
       <c r="AF12" s="3">
         <v>0.1</v>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="AQ12">
         <f t="shared" si="5"/>
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="AD13" s="13">
         <f t="shared" si="7"/>
-        <v>504.25435025000002</v>
+        <v>508.75845025000001</v>
       </c>
       <c r="AF13" s="3">
         <v>0.1</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="AQ13">
         <f t="shared" si="5"/>
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
